--- a/projects/scaleTest.xlsx
+++ b/projects/scaleTest.xlsx
@@ -1593,9 +1593,6 @@
     <t>Run Data Point Filename</t>
   </si>
   <si>
-    <t>run_openstudio_workflow_monthly.rb</t>
-  </si>
-  <si>
     <t>cooling_electricity</t>
   </si>
   <si>
@@ -1606,6 +1603,9 @@
   </si>
   <si>
     <t>scaling factor</t>
+  </si>
+  <si>
+    <t>run_openstudio_workflow.rb</t>
   </si>
 </sst>
 </file>
@@ -4700,7 +4700,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4869,7 +4869,7 @@
         <v>520</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4888,7 +4888,7 @@
         <v>474</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6258,7 +6258,7 @@
         <v>503</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -6318,7 +6318,7 @@
         <v>509</v>
       </c>
       <c r="B5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C5" t="s">
         <v>510</v>
@@ -6348,7 +6348,7 @@
         <v>511</v>
       </c>
       <c r="B6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C6" t="s">
         <v>512</v>
